--- a/medicine/Handicap/Frida,_c'est_moi_(web-série)/Frida,_c'est_moi_(web-série).xlsx
+++ b/medicine/Handicap/Frida,_c'est_moi_(web-série)/Frida,_c'est_moi_(web-série).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Frida,_c%27est_moi_(web-s%C3%A9rie)</t>
+          <t>Frida,_c'est_moi_(web-série)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Frida, c’est moi est une web-série d’animation québécoise en 6 épisodes de 6 minutes, adaptée du livre éponyme par Sophie Faucher[1] et Cara Carmina[2], réalisée par Karine Vézina et André Kadi, produite par Tobo Média[3] et Du Coup Studio Production[4], diffusée depuis le 6 octobre 2023 sur Télé-Québec[5],[6].
-Tobo Média a également produit la web-série jeunesse Le monde selon diffusée sur le site web de Télé-Québec depuis le 20 mars 2022[7].
+Frida, c’est moi est une web-série d’animation québécoise en 6 épisodes de 6 minutes, adaptée du livre éponyme par Sophie Faucher et Cara Carmina, réalisée par Karine Vézina et André Kadi, produite par Tobo Média et Du Coup Studio Production, diffusée depuis le 6 octobre 2023 sur Télé-Québec,.
+Tobo Média a également produit la web-série jeunesse Le monde selon diffusée sur le site web de Télé-Québec depuis le 20 mars 2022.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Frida,_c%27est_moi_(web-s%C3%A9rie)</t>
+          <t>Frida,_c'est_moi_(web-série)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frida, c’est moi raconte l’histoire d’une petite fille qui apprivoise handicap et différence, grâce à la puissance de l’imaginaire, de la créativité et à la présence bienveillante de son entourage[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frida, c’est moi raconte l’histoire d’une petite fille qui apprivoise handicap et différence, grâce à la puissance de l’imaginaire, de la créativité et à la présence bienveillante de son entourage.
 Les épisodes mettent en scène une Frida inspirée de l’artiste culte Frida Kahlo.
-Portée par une trame de fond toute mexicaine, la série raconte avec une poésie multicolore les fragments de vie marquants de Frida, une petite fille pétillante de vie qui exprime sa vulnérabilité avec courage et détermination[2].
+Portée par une trame de fond toute mexicaine, la série raconte avec une poésie multicolore les fragments de vie marquants de Frida, une petite fille pétillante de vie qui exprime sa vulnérabilité avec courage et détermination.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Frida,_c%27est_moi_(web-s%C3%A9rie)</t>
+          <t>Frida,_c'est_moi_(web-série)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Voix
-Emma Rodriguez: Frida
+          <t>Voix</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Emma Rodriguez: Frida
 Oscar Aguirre: Guillermo
 Roberta Arguello: Matilde
 Pablo Benitez: Tonito
@@ -568,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Frida,_c%27est_moi_(web-s%C3%A9rie)</t>
+          <t>Frida,_c'est_moi_(web-série)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +605,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Scénarios: Sophie Faucher et Émilie Gabrielle
 Conseil à la scénarisation : Johanne Champagne
@@ -616,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Frida,_c%27est_moi_(web-s%C3%A9rie)</t>
+          <t>Frida,_c'est_moi_(web-série)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,14 +655,16 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Frida-de-Coyoacan-des-coyotes
 Frida-qui-ira-mieux-bientôt
 Frida-multicolore
 Frida-qui-a-des-ailes
 Frida-ça-roule
-Frida-viva-la-vida![8]</t>
+Frida-viva-la-vida!</t>
         </is>
       </c>
     </row>
